--- a/biology/Histoire de la zoologie et de la botanique/Hervé_Maurice_Burdet/Hervé_Maurice_Burdet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hervé_Maurice_Burdet/Hervé_Maurice_Burdet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Maurice_Burdet</t>
+          <t>Hervé_Maurice_Burdet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Maurice Burdet, né en 1939, est un botaniste suisse ayant fait sa carrière au Conservatoire et au jardin botanique de Genève. Son collègue Werner Rodolfo Greuter et lui sont les coauteurs de nombreux taxons.
 </t>
